--- a/Parameters-Estimation/Lx_Parameters_Estimation/1-Trained-Models/Trained-Test-Results-k-4-old-model-configuration/Results-calibration-model-k-4.xlsx
+++ b/Parameters-Estimation/Lx_Parameters_Estimation/1-Trained-Models/Trained-Test-Results-k-4-old-model-configuration/Results-calibration-model-k-4.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,17 +10,53 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAD7BDA-84C4-49F9-8477-67F48780873D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4455" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="4455" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>random_forest</t>
+  </si>
+  <si>
+    <t>lsboost</t>
+  </si>
+  <si>
+    <t>old_model</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>RRSE</t>
+  </si>
+  <si>
+    <t>RAE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Corr Coeff</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
   <si>
     <t>random_forest</t>
   </si>
@@ -87,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,18 +146,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,107 +476,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection sqref="A1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="9" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="7.85546875" customWidth="true"/>
+    <col min="3" max="3" width="9.7109375" customWidth="true"/>
+    <col min="4" max="4" width="7.7109375" customWidth="true"/>
+    <col min="5" max="5" width="7.7109375" customWidth="true"/>
+    <col min="6" max="6" width="7.7109375" customWidth="true"/>
+    <col min="7" max="7" width="7.7109375" customWidth="true"/>
+    <col min="8" max="8" width="7.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
-      <c r="A1" s="1"/>
+    <row r="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75">
+    <row r="2" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4">
-        <v>4.089386418600288</v>
+        <v>3.4015160345908879</v>
       </c>
       <c r="C2" s="4">
-        <v>0.28941163613590148</v>
+        <v>0.24073008029659504</v>
       </c>
       <c r="D2" s="4">
-        <v>3.0394098639455778</v>
+        <v>2.6230186965811959</v>
       </c>
       <c r="E2" s="4">
-        <v>0.52634485226448657</v>
+        <v>0.36416577228382507</v>
       </c>
       <c r="F2" s="4">
-        <v>0.72549627997977117</v>
+        <v>0.60346149196433829</v>
       </c>
       <c r="G2" s="4">
-        <v>0.73309451614702792</v>
+        <v>0.63266249314548861</v>
       </c>
       <c r="H2" s="4">
-        <v>0.47365514773551343</v>
+        <v>0.63583422771617493</v>
       </c>
       <c r="I2" s="4">
-        <v>0.69141839630860447</v>
+        <v>0.79840499447713709</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75">
+    <row r="3" ht="18.75">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4">
-        <v>4.4830088536073172</v>
+        <v>3.6665942560691902</v>
       </c>
       <c r="C3" s="4">
-        <v>0.31726885021990919</v>
+        <v>0.25949003935379972</v>
       </c>
       <c r="D3" s="4">
-        <v>3.6977252205965683</v>
+        <v>3.1032471973291464</v>
       </c>
       <c r="E3" s="4">
-        <v>0.63254768748435231</v>
+        <v>0.42313581534237832</v>
       </c>
       <c r="F3" s="4">
-        <v>0.79532866632880295</v>
+        <v>0.65048890485724531</v>
       </c>
       <c r="G3" s="4">
-        <v>0.89187776666583896</v>
+        <v>0.74849184691971693</v>
       </c>
       <c r="H3" s="4">
-        <v>0.36745231251564769</v>
+        <v>0.57686418465762168</v>
       </c>
       <c r="I3" s="4">
-        <v>0.6282532832588098</v>
+        <v>0.78356355667974831</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" ht="18.75">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4">
         <v>2.971648885719846</v>
